--- a/Lab 6/assmanns log.xlsx
+++ b/Lab 6/assmanns log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pearl\Desktop\Edumacation\ATSC 303\Lab 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A606D1-7393-40C9-A5A2-C512EDF8ADB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D9FBC0-EE9F-4DAD-8C9F-2AD7183D0BA0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,25 +31,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>dry</t>
+    <t>Time(s)</t>
   </si>
   <si>
-    <t>w</t>
+    <t>Dry bulb T</t>
+  </si>
+  <si>
+    <t>Wet bulb T</t>
+  </si>
+  <si>
+    <t>Average:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,12 +86,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,100 +395,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="A1:C8"/>
+      <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.86328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>22.4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>13.7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3">
+    <row r="3" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
         <v>30</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>22.5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>13.6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4">
+    <row r="4" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
         <v>60</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>22.8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>13.8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5">
+    <row r="5" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
         <v>90</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>22.7</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>13.6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6">
+    <row r="6" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
         <v>120</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>22.5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>13.7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7">
+    <row r="7" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
         <v>150</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>22.5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>13.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8">
+    <row r="8" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
         <v>180</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>22.4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>13.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" ref="B9:C9" si="0">AVERAGE(B2:B8)</f>
+        <v>22.542857142857144</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>13.642857142857141</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>